--- a/Key_items.xlsx
+++ b/Key_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/ducle_dragoncapital_com/Documents/Profiles/Desktop/Projects/VS/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_F25DC773A252ABDACC10485F719957D85BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93938650-0419-4BD4-AE9D-1AECE389C09E}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="11_F25DC773A252ABDACC10485F719957D85BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48FA7950-C5B4-4B53-8507-4DA2CD72722E}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="16530" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>KeyCode</t>
   </si>
@@ -138,12 +138,6 @@
   </si>
   <si>
     <t>NPL Coverage ratio</t>
-  </si>
-  <si>
-    <t>CA.8</t>
-  </si>
-  <si>
-    <t>Total Credit Balance</t>
   </si>
   <si>
     <t>CA.9</t>
@@ -530,19 +524,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,220 +544,212 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>48</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B37" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Key_items.xlsx
+++ b/Key_items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dragoncapitalvn-my.sharepoint.com/personal/ducle_dragoncapital_com/Documents/Profiles/Desktop/Projects/VS/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="11_F25DC773A252ABDACC10485F719957D85BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48FA7950-C5B4-4B53-8507-4DA2CD72722E}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_F25DC773A252ABDACC10485F719957D85BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DAD8BDB-21D6-47D3-A31F-3F20413AEF90}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>KeyCode</t>
   </si>
@@ -198,6 +198,18 @@
   </si>
   <si>
     <t>Deposit</t>
+  </si>
+  <si>
+    <t>CA.23</t>
+  </si>
+  <si>
+    <t>CA.25</t>
+  </si>
+  <si>
+    <t>NPL Formation (%)</t>
+  </si>
+  <si>
+    <t>G2 Formation (%)</t>
   </si>
 </sst>
 </file>
@@ -524,19 +536,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -552,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -560,7 +572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -568,7 +580,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -576,7 +588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -584,7 +596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -592,7 +604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -600,7 +612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -608,7 +620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -616,139 +628,155 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>48</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B29" t="s">
         <v>49</v>
       </c>
     </row>
